--- a/demo.xlsx
+++ b/demo.xlsx
@@ -14,24 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Judite</t>
-  </si>
-  <si>
-    <t>Genoveva</t>
-  </si>
-  <si>
-    <t>Cleidiane</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Item1</t>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Valor1</t>
+  </si>
+  <si>
+    <t>Valor2</t>
+  </si>
+  <si>
+    <t>Valor3</t>
   </si>
 </sst>
 </file>
@@ -389,62 +395,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>70</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
